--- a/SNP/20200618_AE_results.xlsx
+++ b/SNP/20200618_AE_results.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swvanderlaan/PLINK/analyses/lookups/AE_20200512_COL_MKAVOUSI_MBOS_CHARGE_1000G_CAC/SNP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02335216-B679-2649-8BE7-4774541F0EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443E804-E409-6D4E-937F-CDAD98282042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20040" activeTab="2" xr2:uid="{568AC59A-2869-874A-9139-9254F823A81E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29000" windowHeight="20040" activeTab="2" xr2:uid="{568AC59A-2869-874A-9139-9254F823A81E}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_plaque_composition" sheetId="1" r:id="rId1"/>
     <sheet name="GeneList" sheetId="2" r:id="rId2"/>
     <sheet name="IndSigSNPs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AE_plaque_composition!$A$1:$U$406</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -881,8 +884,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -961,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -970,13 +974,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{47F5D4A2-565E-A641-BEDE-ED68D30AC6E4}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1014,36 +1020,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1360,7 +1336,10 @@
   <dimension ref="A1:U406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U28"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27759,14 +27738,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U406" xr:uid="{7CED07D4-B766-8D41-B66E-BA7313DC562C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U406">
     <sortCondition ref="S2"/>
   </sortState>
   <conditionalFormatting sqref="S2:S406">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.001086956522</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29321,8 +29301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B254FF0-F58B-FE43-A490-D9584D8AE637}">
   <dimension ref="A1:AL405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:O46"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -29335,9 +29315,15 @@
     <col min="6" max="6" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="19" width="8.83203125" style="5"/>
-    <col min="20" max="20" width="8.83203125" style="5" customWidth="1"/>
-    <col min="21" max="35" width="8.83203125" style="5" hidden="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.83203125" style="5"/>
+    <col min="20" max="20" width="11.1640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="8.83203125" style="5" customWidth="1"/>
+    <col min="26" max="30" width="8.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="31" max="35" width="8.83203125" style="5" customWidth="1"/>
+    <col min="36" max="36" width="8.83203125" style="5"/>
+    <col min="37" max="37" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16">
@@ -29398,7 +29384,7 @@
         <v>273</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f>CONCATENATE(E2,":",F2)</f>
+        <f t="shared" ref="D2:D46" si="0">CONCATENATE(E2,":",F2)</f>
         <v>6:12768218</v>
       </c>
       <c r="E2" s="5">
@@ -29518,7 +29504,7 @@
         <v>271</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>CONCATENATE(E3,":",F3)</f>
+        <f t="shared" si="0"/>
         <v>6:12801967</v>
       </c>
       <c r="E3" s="5">
@@ -29528,39 +29514,39 @@
         <v>12801967</v>
       </c>
       <c r="G3" s="8" t="e">
-        <f t="shared" ref="G3:G46" si="0">INDEX($AK$3:$AK$6,MATCH($D3,$T$3:$T$6,0))</f>
+        <f t="shared" ref="G3:G46" si="1">INDEX($AK$3:$AK$6,MATCH($D3,$T$3:$T$6,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="8" t="e">
-        <f t="shared" ref="H3:H46" si="1">INDEX($AK$7:$AK$9,MATCH($D3,$T$7:$T$9,0))</f>
+        <f t="shared" ref="H3:H46" si="2">INDEX($AK$7:$AK$9,MATCH($D3,$T$7:$T$9,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I3" s="8" t="e">
-        <f t="shared" ref="I3:I46" si="2">INDEX($AK$10:$AK$11,MATCH($D3,$T$10:$T$11,0))</f>
+        <f t="shared" ref="I3:I46" si="3">INDEX($AK$10:$AK$11,MATCH($D3,$T$10:$T$11,0))</f>
         <v>#N/A</v>
       </c>
       <c r="J3" s="8" t="e">
-        <f t="shared" ref="J3:J46" si="3">INDEX($AK$12,MATCH($D3,$T$12,0))</f>
+        <f t="shared" ref="J3:J46" si="4">INDEX($AK$12,MATCH($D3,$T$12,0))</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="8" t="e">
-        <f t="shared" ref="K3:K46" si="4">INDEX($AK$13:$AK$17,MATCH($D3,$T$13:$T$17,0))</f>
+        <f t="shared" ref="K3:K46" si="5">INDEX($AK$13:$AK$17,MATCH($D3,$T$13:$T$17,0))</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="8" t="e">
-        <f t="shared" ref="L3:L46" si="5">INDEX($AK$18,MATCH($D3,$T$18,0))</f>
+        <f t="shared" ref="L3:L46" si="6">INDEX($AK$18,MATCH($D3,$T$18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="8" t="e">
-        <f t="shared" ref="M3:M46" si="6">INDEX($AK$19:$AK$20,MATCH($D3,$T$19:$T$20,0))</f>
+        <f t="shared" ref="M3:M46" si="7">INDEX($AK$19:$AK$20,MATCH($D3,$T$19:$T$20,0))</f>
         <v>#N/A</v>
       </c>
       <c r="N3" s="8" t="e">
-        <f t="shared" ref="N3:N46" si="7">INDEX($AK$21:$AK$25,MATCH($D3,$T$21:$T$25,0))</f>
+        <f t="shared" ref="N3:N46" si="8">INDEX($AK$21:$AK$25,MATCH($D3,$T$21:$T$25,0))</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O46" si="8">INDEX($AK$26:$AK$29,MATCH($D3,$T$26:$T$29,0))</f>
+        <f t="shared" ref="O3:O46" si="9">INDEX($AK$26:$AK$29,MATCH($D3,$T$26:$T$29,0))</f>
         <v>-8.3058099999999996E-2</v>
       </c>
       <c r="R3">
@@ -29605,25 +29591,25 @@
       <c r="AE3">
         <v>1501</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="10">
         <v>617.00099999999998</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="9">
         <v>0.20552999999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="9">
         <v>0.79447000000000001</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="9">
         <v>8.1729599999999999E-2</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="9">
         <v>3.9536200000000001E-2</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="9">
         <v>0.20077100000000001</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="9">
         <v>9.7832699999999995E-2</v>
       </c>
     </row>
@@ -29638,7 +29624,7 @@
         <v>269</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f>CONCATENATE(E4,":",F4)</f>
+        <f t="shared" si="0"/>
         <v>6:12883524</v>
       </c>
       <c r="E4" s="5">
@@ -29648,39 +29634,39 @@
         <v>12883524</v>
       </c>
       <c r="G4" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H4" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I4" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J4" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K4" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L4" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M4" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N4" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O4" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R4">
@@ -29725,25 +29711,25 @@
       <c r="AE4">
         <v>1501</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="10">
         <v>847.99900000000002</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="9">
         <v>0.28247800000000001</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="9">
         <v>0.71752199999999999</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="9">
         <v>0.308168</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="9">
         <v>4.9609299999999997E-3</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="9">
         <v>0.23664499999999999</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="9">
         <v>8.4560899999999994E-2</v>
       </c>
     </row>
@@ -29758,7 +29744,7 @@
         <v>267</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f>CONCATENATE(E5,":",F5)</f>
+        <f t="shared" si="0"/>
         <v>6:12887465</v>
       </c>
       <c r="E5" s="5">
@@ -29768,39 +29754,39 @@
         <v>12887465</v>
       </c>
       <c r="G5" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H5" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I5" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J5" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K5" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L5" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M5" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N5" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O5" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R5">
@@ -29845,25 +29831,25 @@
       <c r="AE5">
         <v>1501</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="10">
         <v>1157</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="9">
         <v>0.38540999999999997</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="9">
         <v>0.61458999999999997</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="9">
         <v>0.95655299999999999</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="9">
         <v>3.3769100000000003E-2</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="9">
         <v>0.167072</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="9">
         <v>7.8853900000000005E-2</v>
       </c>
     </row>
@@ -29878,7 +29864,7 @@
         <v>265</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f>CONCATENATE(E6,":",F6)</f>
+        <f t="shared" si="0"/>
         <v>6:12891103</v>
       </c>
       <c r="E6" s="5">
@@ -29888,39 +29874,39 @@
         <v>12891103</v>
       </c>
       <c r="G6" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H6" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I6" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J6" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K6" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L6" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M6" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N6" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O6" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R6">
@@ -29965,25 +29951,25 @@
       <c r="AE6">
         <v>1501</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="10">
         <v>1049</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="9">
         <v>0.34943400000000002</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="9">
         <v>0.34943400000000002</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="9">
         <v>0.64995800000000004</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="9">
         <v>1.29616E-2</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="9">
         <v>-0.200817</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="9">
         <v>8.10414E-2</v>
       </c>
     </row>
@@ -29998,7 +29984,7 @@
         <v>263</v>
       </c>
       <c r="D7" s="5" t="str">
-        <f>CONCATENATE(E7,":",F7)</f>
+        <f t="shared" si="0"/>
         <v>6:12892486</v>
       </c>
       <c r="E7" s="5">
@@ -30008,39 +29994,39 @@
         <v>12892486</v>
       </c>
       <c r="G7" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H7" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I7" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J7" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K7" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L7" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M7" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N7" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O7" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R7">
@@ -30085,25 +30071,25 @@
       <c r="AE7">
         <v>1497</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="10">
         <v>96.999899999999997</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="9">
         <v>3.2398099999999999E-2</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="9">
         <v>3.2398099999999999E-2</v>
       </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
+      <c r="AI7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="9">
         <v>3.44953E-2</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="9">
         <v>-0.50079899999999999</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="9">
         <v>0.22969200000000001</v>
       </c>
     </row>
@@ -30118,7 +30104,7 @@
         <v>261</v>
       </c>
       <c r="D8" s="5" t="str">
-        <f>CONCATENATE(E8,":",F8)</f>
+        <f t="shared" si="0"/>
         <v>6:12903957</v>
       </c>
       <c r="E8" s="5">
@@ -30128,39 +30114,39 @@
         <v>12903957</v>
       </c>
       <c r="G8" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H8" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I8" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J8" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K8" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L8" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M8" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N8" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O8" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R8">
@@ -30205,25 +30191,25 @@
       <c r="AE8">
         <v>1497</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="10">
         <v>182</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="9">
         <v>6.0788200000000001E-2</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="9">
         <v>6.0788200000000001E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="9">
         <v>6.3667299999999996E-2</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="9">
         <v>3.8174699999999999E-2</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="9">
         <v>-0.35853200000000002</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="9">
         <v>0.16880400000000001</v>
       </c>
     </row>
@@ -30238,7 +30224,7 @@
         <v>259</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f>CONCATENATE(E9,":",F9)</f>
+        <f t="shared" si="0"/>
         <v>6:12919867</v>
       </c>
       <c r="E9" s="5">
@@ -30248,39 +30234,39 @@
         <v>12919867</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.167072</v>
       </c>
       <c r="H9" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I9" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.170019</v>
       </c>
       <c r="K9" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L9" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M9" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N9" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.5216900000000003E-2</v>
       </c>
       <c r="R9">
@@ -30325,25 +30311,25 @@
       <c r="AE9">
         <v>1497</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="10">
         <v>1175</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="9">
         <v>0.39245200000000002</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="9">
         <v>0.39245200000000002</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="9">
         <v>0.30353999999999998</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="9">
         <v>4.3177899999999998E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="9">
         <v>0.18690200000000001</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="9">
         <v>9.3012300000000006E-2</v>
       </c>
     </row>
@@ -30358,7 +30344,7 @@
         <v>257</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f>CONCATENATE(E10,":",F10)</f>
+        <f t="shared" si="0"/>
         <v>6:12921714</v>
       </c>
       <c r="E10" s="5">
@@ -30368,39 +30354,39 @@
         <v>12921714</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.200817</v>
       </c>
       <c r="H10" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I10" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J10" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K10" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L10" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.181806</v>
       </c>
       <c r="N10" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O10" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R10">
@@ -30445,25 +30431,25 @@
       <c r="AE10">
         <v>1503</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="10">
         <v>95.999899999999997</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="9">
         <v>3.1936100000000002E-2</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="9">
         <v>3.1936100000000002E-2</v>
       </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
+      <c r="AI10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="9">
         <v>4.5546000000000003E-2</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="9">
         <v>0.46569199999999999</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="9">
         <v>0.22861999999999999</v>
       </c>
     </row>
@@ -30478,7 +30464,7 @@
         <v>255</v>
       </c>
       <c r="D11" s="5" t="str">
-        <f>CONCATENATE(E11,":",F11)</f>
+        <f t="shared" si="0"/>
         <v>6:12943066</v>
       </c>
       <c r="E11" s="5">
@@ -30488,39 +30474,39 @@
         <v>12943066</v>
       </c>
       <c r="G11" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H11" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I11" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J11" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K11" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L11" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M11" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N11" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O11" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R11">
@@ -30565,25 +30551,25 @@
       <c r="AE11">
         <v>1503</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="10">
         <v>181</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="9">
         <v>6.02129E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="9">
         <v>6.02129E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="9">
         <v>6.1640300000000002E-2</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="9">
         <v>6.0536000000000001E-3</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="9">
         <v>0.44952999999999999</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="9">
         <v>0.16128600000000001</v>
       </c>
     </row>
@@ -30598,7 +30584,7 @@
         <v>253</v>
       </c>
       <c r="D12" s="5" t="str">
-        <f>CONCATENATE(E12,":",F12)</f>
+        <f t="shared" si="0"/>
         <v>6:132095002</v>
       </c>
       <c r="E12" s="5">
@@ -30608,39 +30594,39 @@
         <v>132095002</v>
       </c>
       <c r="G12" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H12" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I12" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J12" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K12" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L12" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M12" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N12" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O12" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R12">
@@ -30685,25 +30671,25 @@
       <c r="AE12">
         <v>1500</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="10">
         <v>1161</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="9">
         <v>0.38700000000000001</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="9">
         <v>0.61299999999999999</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="9">
         <v>0.95665699999999998</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="9">
         <v>3.4688099999999999E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="9">
         <v>-0.170019</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="9">
         <v>8.0734700000000006E-2</v>
       </c>
     </row>
@@ -30718,7 +30704,7 @@
         <v>251</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f>CONCATENATE(E13,":",F13)</f>
+        <f t="shared" si="0"/>
         <v>7:45960645</v>
       </c>
       <c r="E13" s="5">
@@ -30728,39 +30714,39 @@
         <v>45960645</v>
       </c>
       <c r="G13" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18690200000000001</v>
       </c>
       <c r="I13" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J13" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K13" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L13" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M13" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N13" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O13" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R13">
@@ -30805,25 +30791,25 @@
       <c r="AE13">
         <v>1396</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="10">
         <v>1363</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="9">
         <v>0.48818099999999998</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="9">
         <v>0.48818099999999998</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="9">
         <v>0.18094499999999999</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="9">
         <v>3.6016699999999999E-2</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="9">
         <v>-7.3832900000000007E-2</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="9">
         <v>3.5178899999999999E-2</v>
       </c>
     </row>
@@ -30838,7 +30824,7 @@
         <v>249</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f>CONCATENATE(E14,":",F14)</f>
+        <f t="shared" si="0"/>
         <v>7:46006323</v>
       </c>
       <c r="E14" s="5">
@@ -30848,39 +30834,39 @@
         <v>46006323</v>
       </c>
       <c r="G14" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H14" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I14" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J14" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K14" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L14" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M14" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N14" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O14" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R14">
@@ -30925,25 +30911,25 @@
       <c r="AE14">
         <v>1396</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="10">
         <v>1194</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="9">
         <v>0.42764999999999997</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="9">
         <v>0.42764999999999997</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="9">
         <v>2.16686E-2</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="9">
         <v>3.8129099999999999E-2</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="9">
         <v>7.48167E-2</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="9">
         <v>3.6048499999999997E-2</v>
       </c>
     </row>
@@ -30958,7 +30944,7 @@
         <v>247</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f>CONCATENATE(E15,":",F15)</f>
+        <f t="shared" si="0"/>
         <v>9:21961866</v>
       </c>
       <c r="E15" s="5">
@@ -30968,39 +30954,39 @@
         <v>21961866</v>
       </c>
       <c r="G15" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H15" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I15" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J15" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K15" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L15" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M15" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N15" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O15" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R15">
@@ -31045,25 +31031,25 @@
       <c r="AE15">
         <v>1396</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="10">
         <v>1363</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="9">
         <v>0.48818099999999998</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="9">
         <v>0.48818099999999998</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="9">
         <v>6.3304800000000003E-3</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="9">
         <v>1.304E-2</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="9">
         <v>8.9153300000000005E-2</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="9">
         <v>3.5863800000000001E-2</v>
       </c>
     </row>
@@ -31078,7 +31064,7 @@
         <v>245</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f>CONCATENATE(E16,":",F16)</f>
+        <f t="shared" si="0"/>
         <v>9:21974218</v>
       </c>
       <c r="E16" s="5">
@@ -31088,39 +31074,39 @@
         <v>21974218</v>
       </c>
       <c r="G16" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H16" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I16" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J16" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K16" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L16" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M16" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N16" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O16" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R16">
@@ -31165,25 +31151,25 @@
       <c r="AE16">
         <v>1396</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="10">
         <v>1340</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="9">
         <v>0.47994300000000001</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="9">
         <v>0.47994300000000001</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="9">
         <v>5.2778399999999998E-3</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="9">
         <v>1.9064000000000001E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="9">
         <v>8.4347900000000003E-2</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="9">
         <v>3.5938199999999997E-2</v>
       </c>
     </row>
@@ -31198,7 +31184,7 @@
         <v>243</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f>CONCATENATE(E17,":",F17)</f>
+        <f t="shared" si="0"/>
         <v>9:21995882</v>
       </c>
       <c r="E17" s="5">
@@ -31208,39 +31194,39 @@
         <v>21995882</v>
       </c>
       <c r="G17" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H17" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I17" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J17" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.3832900000000007E-2</v>
       </c>
       <c r="L17" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M17" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N17" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O17" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R17">
@@ -31285,25 +31271,25 @@
       <c r="AE17">
         <v>1396</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="10">
         <v>1389</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="9">
         <v>0.49749300000000002</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="9">
         <v>0.49749300000000002</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="9">
         <v>8.66508E-2</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="9">
         <v>2.66056E-2</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="9">
         <v>7.8479800000000002E-2</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="9">
         <v>3.5357300000000001E-2</v>
       </c>
     </row>
@@ -31318,7 +31304,7 @@
         <v>241</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f>CONCATENATE(E18,":",F18)</f>
+        <f t="shared" si="0"/>
         <v>9:22047945</v>
       </c>
       <c r="E18" s="5">
@@ -31328,39 +31314,39 @@
         <v>22047945</v>
       </c>
       <c r="G18" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H18" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I18" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J18" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K18" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L18" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M18" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N18" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O18" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R18">
@@ -31405,25 +31391,25 @@
       <c r="AE18">
         <v>1401</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="10">
         <v>576.99900000000002</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="9">
         <v>0.205924</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="9">
         <v>0.794076</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="9">
         <v>0.10195700000000001</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="9">
         <v>2.3385E-2</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="9">
         <v>-0.100548</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="9">
         <v>4.4302099999999997E-2</v>
       </c>
     </row>
@@ -31438,7 +31424,7 @@
         <v>239</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f>CONCATENATE(E19,":",F19)</f>
+        <f t="shared" si="0"/>
         <v>9:22055048</v>
       </c>
       <c r="E19" s="5">
@@ -31448,39 +31434,39 @@
         <v>22055048</v>
       </c>
       <c r="G19" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H19" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I19" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J19" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K19" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L19" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M19" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N19" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O19" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R19">
@@ -31525,25 +31511,25 @@
       <c r="AE19">
         <v>238</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="10">
         <v>187</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="9">
         <v>0.39285700000000001</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="9">
         <v>0.60714299999999999</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="9">
         <v>0.89249800000000001</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="9">
         <v>4.09647E-2</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="9">
         <v>0.18277499999999999</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="9">
         <v>8.8919600000000001E-2</v>
       </c>
     </row>
@@ -31558,7 +31544,7 @@
         <v>237</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f>CONCATENATE(E20,":",F20)</f>
+        <f t="shared" si="0"/>
         <v>9:22056359</v>
       </c>
       <c r="E20" s="5">
@@ -31568,39 +31554,39 @@
         <v>22056359</v>
       </c>
       <c r="G20" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I20" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K20" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L20" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M20" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.28712199999999999</v>
       </c>
       <c r="O20" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R20">
@@ -31645,25 +31631,25 @@
       <c r="AE20">
         <v>238</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="10">
         <v>171</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="9">
         <v>0.35924400000000001</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="9">
         <v>0.35924400000000001</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="9">
         <v>0.57296599999999998</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="9">
         <v>3.9523599999999999E-2</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="9">
         <v>-0.181806</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="9">
         <v>8.7806400000000007E-2</v>
       </c>
     </row>
@@ -31678,7 +31664,7 @@
         <v>235</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f>CONCATENATE(E21,":",F21)</f>
+        <f t="shared" si="0"/>
         <v>9:22067593</v>
       </c>
       <c r="E21" s="5">
@@ -31688,39 +31674,39 @@
         <v>22067593</v>
       </c>
       <c r="G21" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I21" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J21" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.48167E-2</v>
       </c>
       <c r="L21" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M21" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.22300500000000001</v>
       </c>
       <c r="O21" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R21">
@@ -31765,25 +31751,25 @@
       <c r="AE21">
         <v>205</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="10">
         <v>168</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="9">
         <v>0.40975600000000001</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="9">
         <v>0.59024399999999999</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="9">
         <v>0.77298599999999995</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="9">
         <v>6.0811099999999998E-3</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="9">
         <v>-0.28712199999999999</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="9">
         <v>0.103523</v>
       </c>
     </row>
@@ -31798,7 +31784,7 @@
         <v>233</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f>CONCATENATE(E22,":",F22)</f>
+        <f t="shared" si="0"/>
         <v>9:22068652</v>
       </c>
       <c r="E22" s="5">
@@ -31808,39 +31794,39 @@
         <v>22068652</v>
       </c>
       <c r="G22" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I22" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J22" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K22" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L22" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M22" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.32515899999999998</v>
       </c>
       <c r="O22" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R22">
@@ -31885,25 +31871,25 @@
       <c r="AE22">
         <v>205</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="10">
         <v>176</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="9">
         <v>0.42926799999999998</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="9">
         <v>0.42926799999999998</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="9">
         <v>0.20108000000000001</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="9">
         <v>3.3757599999999999E-2</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="9">
         <v>-0.22300500000000001</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="9">
         <v>0.104307</v>
       </c>
     </row>
@@ -31918,7 +31904,7 @@
         <v>231</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f>CONCATENATE(E23,":",F23)</f>
+        <f t="shared" si="0"/>
         <v>9:22071751</v>
       </c>
       <c r="E23" s="5">
@@ -31928,39 +31914,39 @@
         <v>22071751</v>
       </c>
       <c r="G23" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H23" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I23" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J23" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K23" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L23" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M23" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.31186900000000001</v>
       </c>
       <c r="O23" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R23">
@@ -32005,25 +31991,25 @@
       <c r="AE23">
         <v>205</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="10">
         <v>154</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="9">
         <v>0.37561</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="9">
         <v>0.62439</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="9">
         <v>0.65546800000000005</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="9">
         <v>2.4476400000000001E-3</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="9">
         <v>-0.32515899999999998</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="9">
         <v>0.10593</v>
       </c>
     </row>
@@ -32038,7 +32024,7 @@
         <v>229</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f>CONCATENATE(E24,":",F24)</f>
+        <f t="shared" si="0"/>
         <v>9:22072638</v>
       </c>
       <c r="E24" s="5">
@@ -32048,39 +32034,39 @@
         <v>22072638</v>
       </c>
       <c r="G24" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I24" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J24" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9153300000000005E-2</v>
       </c>
       <c r="L24" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M24" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.209955</v>
       </c>
       <c r="O24" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R24">
@@ -32125,25 +32111,25 @@
       <c r="AE24">
         <v>205</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="10">
         <v>161</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="9">
         <v>0.392683</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="9">
         <v>0.607317</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="9">
         <v>0.37900200000000001</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="9">
         <v>3.7450700000000001E-3</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="9">
         <v>-0.31186900000000001</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="9">
         <v>0.106294</v>
       </c>
     </row>
@@ -32158,7 +32144,7 @@
         <v>227</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f>CONCATENATE(E25,":",F25)</f>
+        <f t="shared" si="0"/>
         <v>9:22085598</v>
       </c>
       <c r="E25" s="5">
@@ -32168,39 +32154,39 @@
         <v>22085598</v>
       </c>
       <c r="G25" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I25" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J25" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.4347900000000003E-2</v>
       </c>
       <c r="L25" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M25" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N25" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O25" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R25">
@@ -32245,25 +32231,25 @@
       <c r="AE25">
         <v>205</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="10">
         <v>203</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="9">
         <v>0.49512200000000001</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="9">
         <v>0.49512200000000001</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="9">
         <v>0.40392600000000001</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="9">
         <v>4.2036299999999999E-2</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="9">
         <v>-0.209955</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="9">
         <v>0.102589</v>
       </c>
     </row>
@@ -32278,7 +32264,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f>CONCATENATE(E26,":",F26)</f>
+        <f t="shared" si="0"/>
         <v>9:22086826</v>
       </c>
       <c r="E26" s="5">
@@ -32288,39 +32274,39 @@
         <v>22086826</v>
       </c>
       <c r="G26" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H26" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I26" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J26" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K26" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L26" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M26" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N26" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O26" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R26">
@@ -32365,25 +32351,25 @@
       <c r="AE26">
         <v>1302</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="10">
         <v>155</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="9">
         <v>5.9523800000000002E-2</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="9">
         <v>5.9523800000000002E-2</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="9">
         <v>0.12829299999999999</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="9">
         <v>2.3474100000000001E-2</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="9">
         <v>0.17429800000000001</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="9">
         <v>7.6840000000000006E-2</v>
       </c>
     </row>
@@ -32398,7 +32384,7 @@
         <v>223</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f>CONCATENATE(E27,":",F27)</f>
+        <f t="shared" si="0"/>
         <v>9:22087473</v>
       </c>
       <c r="E27" s="5">
@@ -32408,39 +32394,39 @@
         <v>22087473</v>
       </c>
       <c r="G27" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H27" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I27" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J27" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K27" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L27" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M27" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N27" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O27" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R27">
@@ -32485,25 +32471,25 @@
       <c r="AE27">
         <v>1302</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="10">
         <v>416.99900000000002</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="9">
         <v>0.160138</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="9">
         <v>0.160138</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="9">
         <v>0.53716900000000001</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="9">
         <v>2.61914E-2</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="9">
         <v>-0.114175</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="9">
         <v>5.12933E-2</v>
       </c>
     </row>
@@ -32518,7 +32504,7 @@
         <v>221</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f>CONCATENATE(E28,":",F28)</f>
+        <f t="shared" si="0"/>
         <v>9:22107238</v>
       </c>
       <c r="E28" s="5">
@@ -32528,39 +32514,39 @@
         <v>22107238</v>
       </c>
       <c r="G28" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H28" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I28" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K28" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L28" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M28" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N28" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O28" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R28">
@@ -32605,25 +32591,25 @@
       <c r="AE28">
         <v>1302</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="10">
         <v>1034</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="9">
         <v>0.39708100000000002</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="9">
         <v>0.39708100000000002</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="9">
         <v>0.72855599999999998</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="9">
         <v>3.0119E-2</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="9">
         <v>-8.3058099999999996E-2</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="9">
         <v>3.8259500000000002E-2</v>
       </c>
     </row>
@@ -32638,7 +32624,7 @@
         <v>219</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f>CONCATENATE(E29,":",F29)</f>
+        <f t="shared" si="0"/>
         <v>9:22124630</v>
       </c>
       <c r="E29" s="5">
@@ -32648,39 +32634,39 @@
         <v>22124630</v>
       </c>
       <c r="G29" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I29" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J29" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K29" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L29" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M29" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N29" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O29" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="R29">
@@ -32725,25 +32711,25 @@
       <c r="AE29">
         <v>1302</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="10">
         <v>1006</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="9">
         <v>0.38632899999999998</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="9">
         <v>0.61367099999999997</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="9">
         <v>0.90699399999999997</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="9">
         <v>4.9835699999999997E-2</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="9">
         <v>-7.5216900000000003E-2</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="9">
         <v>3.8313199999999999E-2</v>
       </c>
     </row>
@@ -32758,7 +32744,7 @@
         <v>217</v>
       </c>
       <c r="D30" s="5" t="str">
-        <f>CONCATENATE(E30,":",F30)</f>
+        <f t="shared" si="0"/>
         <v>9:22124744</v>
       </c>
       <c r="E30" s="5">
@@ -32768,39 +32754,39 @@
         <v>22124744</v>
       </c>
       <c r="G30" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I30" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J30" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8479800000000002E-2</v>
       </c>
       <c r="L30" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M30" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N30" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O30" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -32815,7 +32801,7 @@
         <v>215</v>
       </c>
       <c r="D31" s="5" t="str">
-        <f>CONCATENATE(E31,":",F31)</f>
+        <f t="shared" si="0"/>
         <v>9:22125913</v>
       </c>
       <c r="E31" s="5">
@@ -32825,39 +32811,39 @@
         <v>22125913</v>
       </c>
       <c r="G31" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H31" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I31" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J31" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K31" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L31" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M31" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N31" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O31" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -32872,7 +32858,7 @@
         <v>213</v>
       </c>
       <c r="D32" s="5" t="str">
-        <f>CONCATENATE(E32,":",F32)</f>
+        <f t="shared" si="0"/>
         <v>10:44511785</v>
       </c>
       <c r="E32" s="5">
@@ -32882,39 +32868,39 @@
         <v>44511785</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20077100000000001</v>
       </c>
       <c r="H32" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I32" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K32" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.100548</v>
       </c>
       <c r="M32" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N32" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O32" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -32929,7 +32915,7 @@
         <v>211</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f>CONCATENATE(E33,":",F33)</f>
+        <f t="shared" si="0"/>
         <v>10:44515716</v>
       </c>
       <c r="E33" s="5">
@@ -32939,39 +32925,39 @@
         <v>44515716</v>
       </c>
       <c r="G33" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H33" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I33" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J33" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K33" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L33" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M33" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N33" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O33" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -32986,7 +32972,7 @@
         <v>209</v>
       </c>
       <c r="D34" s="5" t="str">
-        <f>CONCATENATE(E34,":",F34)</f>
+        <f t="shared" si="0"/>
         <v>10:63836088</v>
       </c>
       <c r="E34" s="5">
@@ -32996,39 +32982,39 @@
         <v>63836088</v>
       </c>
       <c r="G34" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H34" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I34" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J34" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K34" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L34" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M34" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N34" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O34" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33043,7 +33029,7 @@
         <v>207</v>
       </c>
       <c r="D35" s="5" t="str">
-        <f>CONCATENATE(E35,":",F35)</f>
+        <f t="shared" si="0"/>
         <v>10:75917431</v>
       </c>
       <c r="E35" s="5">
@@ -33053,39 +33039,39 @@
         <v>75917431</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23664499999999999</v>
       </c>
       <c r="H35" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I35" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J35" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K35" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L35" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M35" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N35" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O35" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33100,7 +33086,7 @@
         <v>205</v>
       </c>
       <c r="D36" s="5" t="str">
-        <f>CONCATENATE(E36,":",F36)</f>
+        <f t="shared" si="0"/>
         <v>12:4486618</v>
       </c>
       <c r="E36" s="5">
@@ -33110,39 +33096,39 @@
         <v>4486618</v>
       </c>
       <c r="G36" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H36" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I36" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J36" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K36" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L36" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M36" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N36" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O36" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33157,7 +33143,7 @@
         <v>203</v>
       </c>
       <c r="D37" s="5" t="str">
-        <f>CONCATENATE(E37,":",F37)</f>
+        <f t="shared" si="0"/>
         <v>13:111049623</v>
       </c>
       <c r="E37" s="5">
@@ -33167,39 +33153,39 @@
         <v>111049623</v>
       </c>
       <c r="G37" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H37" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I37" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J37" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K37" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L37" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M37" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N37" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O37" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33214,7 +33200,7 @@
         <v>201</v>
       </c>
       <c r="D38" s="5" t="str">
-        <f>CONCATENATE(E38,":",F38)</f>
+        <f t="shared" si="0"/>
         <v>15:79071095</v>
       </c>
       <c r="E38" s="5">
@@ -33224,39 +33210,39 @@
         <v>79071095</v>
       </c>
       <c r="G38" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H38" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I38" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J38" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K38" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L38" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M38" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N38" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O38" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33271,7 +33257,7 @@
         <v>199</v>
       </c>
       <c r="D39" s="5" t="str">
-        <f>CONCATENATE(E39,":",F39)</f>
+        <f t="shared" si="0"/>
         <v>15:79082431</v>
       </c>
       <c r="E39" s="5">
@@ -33281,39 +33267,39 @@
         <v>79082431</v>
       </c>
       <c r="G39" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H39" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I39" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J39" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K39" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L39" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M39" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N39" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O39" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33328,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="D40" s="5" t="str">
-        <f>CONCATENATE(E40,":",F40)</f>
+        <f t="shared" si="0"/>
         <v>15:79105350</v>
       </c>
       <c r="E40" s="5">
@@ -33338,39 +33324,39 @@
         <v>79105350</v>
       </c>
       <c r="G40" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H40" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I40" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J40" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K40" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L40" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M40" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N40" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O40" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33385,7 +33371,7 @@
         <v>195</v>
       </c>
       <c r="D41" s="5" t="str">
-        <f>CONCATENATE(E41,":",F41)</f>
+        <f t="shared" si="0"/>
         <v>15:79123946</v>
       </c>
       <c r="E41" s="5">
@@ -33395,39 +33381,39 @@
         <v>79123946</v>
       </c>
       <c r="G41" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H41" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I41" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J41" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K41" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L41" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18277499999999999</v>
       </c>
       <c r="N41" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O41" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33442,7 +33428,7 @@
         <v>193</v>
       </c>
       <c r="D42" s="5" t="str">
-        <f>CONCATENATE(E42,":",F42)</f>
+        <f t="shared" si="0"/>
         <v>15:79126155</v>
       </c>
       <c r="E42" s="5">
@@ -33452,39 +33438,39 @@
         <v>79126155</v>
       </c>
       <c r="G42" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H42" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I42" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J42" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K42" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L42" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M42" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N42" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O42" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33499,7 +33485,7 @@
         <v>191</v>
       </c>
       <c r="D43" s="5" t="str">
-        <f>CONCATENATE(E43,":",F43)</f>
+        <f t="shared" si="0"/>
         <v>15:79141703</v>
       </c>
       <c r="E43" s="5">
@@ -33509,39 +33495,39 @@
         <v>79141703</v>
       </c>
       <c r="G43" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H43" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I43" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J43" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K43" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L43" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M43" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N43" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O43" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33556,7 +33542,7 @@
         <v>189</v>
       </c>
       <c r="D44" s="5" t="str">
-        <f>CONCATENATE(E44,":",F44)</f>
+        <f t="shared" si="0"/>
         <v>15:79145923</v>
       </c>
       <c r="E44" s="5">
@@ -33566,39 +33552,39 @@
         <v>79145923</v>
       </c>
       <c r="G44" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H44" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I44" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J44" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K44" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L44" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M44" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N44" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O44" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33613,7 +33599,7 @@
         <v>187</v>
       </c>
       <c r="D45" s="5" t="str">
-        <f>CONCATENATE(E45,":",F45)</f>
+        <f t="shared" si="0"/>
         <v>19:45382675</v>
       </c>
       <c r="E45" s="5">
@@ -33623,39 +33609,39 @@
         <v>45382675</v>
       </c>
       <c r="G45" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.50079899999999999</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46569199999999999</v>
       </c>
       <c r="J45" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K45" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L45" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M45" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N45" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O45" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -33670,7 +33656,7 @@
         <v>185</v>
       </c>
       <c r="D46" s="5" t="str">
-        <f>CONCATENATE(E46,":",F46)</f>
+        <f t="shared" si="0"/>
         <v>19:45412079</v>
       </c>
       <c r="E46" s="5">
@@ -33680,39 +33666,39 @@
         <v>45412079</v>
       </c>
       <c r="G46" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.35853200000000002</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44952999999999999</v>
       </c>
       <c r="J46" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="K46" s="8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="L46" s="8" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="M46" s="8" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="N46" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17429800000000001</v>
       </c>
     </row>
